--- a/src/files/price/price20241101.xlsx
+++ b/src/files/price/price20241101.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5388FA-1688-43EF-90C2-AD8A87D4EA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAD941-5AD3-49A6-AFD7-37E6DEDB383A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21525" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1890" windowWidth="21525" windowHeight="16110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Направление</t>
   </si>
@@ -585,9 +585,6 @@
     </r>
   </si>
   <si>
-    <t>Машинорейс (тыс.руб.)</t>
-  </si>
-  <si>
     <r>
       <t>15000-19000кг/75-85м</t>
     </r>
@@ -622,6 +619,12 @@
       </rPr>
       <t>3</t>
     </r>
+  </si>
+  <si>
+    <t>Машинорейс</t>
+  </si>
+  <si>
+    <t>Договорная Стоимость</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -1073,6 +1076,9 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,7 +1098,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -1118,7 +1124,13 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1431,8 +1443,8 @@
   </sheetPr>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1442,24 +1454,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1"/>
@@ -1553,24 +1565,24 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="23" t="s">
@@ -1773,24 +1785,24 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A12" s="25" t="s">
@@ -2053,94 +2065,66 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="42"/>
+      <c r="A16" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="43"/>
     </row>
     <row r="17" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14">
-        <v>120</v>
-      </c>
-      <c r="C17" s="14">
-        <v>180</v>
-      </c>
-      <c r="D17" s="14">
-        <v>220</v>
-      </c>
-      <c r="E17" s="14">
-        <v>100</v>
-      </c>
-      <c r="F17" s="14">
-        <v>150</v>
-      </c>
-      <c r="G17" s="14">
-        <v>180</v>
-      </c>
-      <c r="H17" s="14">
-        <v>64</v>
-      </c>
-      <c r="I17" s="14">
-        <v>60</v>
-      </c>
-      <c r="J17" s="14">
-        <v>120</v>
-      </c>
-      <c r="K17" s="14">
-        <v>100</v>
-      </c>
-      <c r="L17" s="14">
-        <v>80</v>
-      </c>
-      <c r="M17" s="14">
-        <v>120</v>
-      </c>
-      <c r="N17" s="14">
-        <v>110</v>
-      </c>
-      <c r="O17" s="14">
-        <v>70</v>
-      </c>
-      <c r="P17" s="14">
-        <v>30</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="46"/>
     </row>
     <row r="18" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="23" t="s">
@@ -2293,68 +2277,68 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
     </row>
     <row r="23" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:16" ht="24.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A24" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:16" ht="19.5" thickTop="1">
       <c r="A25" s="3"/>
@@ -2500,48 +2484,48 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A32" s="34" t="s">
+    <row r="32" spans="1:16" ht="45" customHeight="1">
+      <c r="A32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-    </row>
-    <row r="33" spans="1:16" ht="50.1" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+    </row>
+    <row r="33" spans="1:16" ht="45" customHeight="1">
+      <c r="A33" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B23:P23"/>
     <mergeCell ref="B24:P24"/>
     <mergeCell ref="A32:P32"/>
@@ -2552,8 +2536,9 @@
     <mergeCell ref="A16:P16"/>
     <mergeCell ref="A18:P18"/>
     <mergeCell ref="A22:P22"/>
+    <mergeCell ref="B17:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>